--- a/escena_PU300.xlsx
+++ b/escena_PU300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD16CF7-5794-41E7-89BF-9992E5E88F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D381DEC-AB2E-4A75-BAFF-8A778435A7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{944E0823-291F-4AD7-8EBC-794DB4737F42}"/>
   </bookViews>
@@ -109,13 +109,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,39 +435,39 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -538,7 +538,7 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C8" si="0">C5-0.75-0.4</f>
+        <f t="shared" ref="C6:C7" si="0">C5-0.75-0.4</f>
         <v>3.6</v>
       </c>
       <c r="D6" s="2">
@@ -626,7 +626,7 @@
         <v>3.1</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:C13" si="1">C6</f>
+        <f t="shared" ref="C11:C12" si="1">C6</f>
         <v>3.6</v>
       </c>
       <c r="D11" s="2">
@@ -719,10 +719,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F16" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
         <v>0.04</v>
       </c>
       <c r="E18" s="1">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" s="1">
-        <v>-0.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -790,148 +790,148 @@
         <v>0.1</v>
       </c>
       <c r="F20" s="1">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/escena_PU300.xlsx
+++ b/escena_PU300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D381DEC-AB2E-4A75-BAFF-8A778435A7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707DF281-B857-45DB-8F62-D01D872E9FA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{944E0823-291F-4AD7-8EBC-794DB4737F42}"/>
   </bookViews>

--- a/escena_PU300.xlsx
+++ b/escena_PU300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707DF281-B857-45DB-8F62-D01D872E9FA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F8CC3-6A2E-4DC4-943F-80C7891B8285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{944E0823-291F-4AD7-8EBC-794DB4737F42}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <v>0.04</v>
       </c>
       <c r="F14" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>0.08</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2">
         <v>0.04</v>
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" s="1">
-        <v>-1.4</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
